--- a/plot/algorithm_evaluation/algorithm_evaluation.xlsx
+++ b/plot/algorithm_evaluation/algorithm_evaluation.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuboluo/Documents/PycharmProjects/SmartSwitch/plot/dataset_based/algorithm_evaluation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuboluo/Documents/PycharmProjects/SmartSwitch/plot/algorithm_evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A494995F-8510-8A47-8BF9-6C2A492AA6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D83AD9D-9957-FB48-98A5-EBF19BF41889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="640" windowWidth="27640" windowHeight="15680" activeTab="1" xr2:uid="{91D821F7-EF8D-5E43-A2F0-11A563B77237}"/>
+    <workbookView xWindow="1160" yWindow="640" windowWidth="27640" windowHeight="15680" activeTab="3" xr2:uid="{91D821F7-EF8D-5E43-A2F0-11A563B77237}"/>
   </bookViews>
   <sheets>
-    <sheet name="BPnumber" sheetId="1" r:id="rId1"/>
-    <sheet name="BPlocation" sheetId="2" r:id="rId2"/>
+    <sheet name="BPnumber_old" sheetId="1" r:id="rId1"/>
+    <sheet name="BPlocation_old" sheetId="2" r:id="rId2"/>
+    <sheet name="BPnumber" sheetId="3" r:id="rId3"/>
+    <sheet name="BPlocation" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="22">
   <si>
     <t>MNIST</t>
   </si>
@@ -161,6 +163,34 @@
   <si>
     <t>CIFAR</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Effects of different number of branch out points - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Cost (inference + switching)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Effects of different number of branch out points - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Overhead (switching only)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -225,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -239,6 +269,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,7 +591,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView zoomScale="118" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection sqref="A1:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1028,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102CAB7E-A73F-FA4A-8476-AF5D5AADA4CE}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1498,4 +1533,923 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4B01B5-97F1-5E4B-A34B-3F81D99D397C}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection sqref="A1:J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.41</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>3</v>
+      </c>
+      <c r="B10" s="4">
+        <v>38.909999999999997</v>
+      </c>
+      <c r="C10" s="4">
+        <v>45.76</v>
+      </c>
+      <c r="D10" s="4">
+        <v>45.7</v>
+      </c>
+      <c r="E10" s="4">
+        <v>46.08</v>
+      </c>
+      <c r="F10" s="4">
+        <v>52.28</v>
+      </c>
+      <c r="G10" s="4">
+        <v>41.93</v>
+      </c>
+      <c r="H10" s="4">
+        <v>48.59</v>
+      </c>
+      <c r="I10" s="4">
+        <v>49.86</v>
+      </c>
+      <c r="J10" s="4">
+        <v>84.04</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4">
+        <v>52.57</v>
+      </c>
+      <c r="C11" s="4">
+        <v>63.96</v>
+      </c>
+      <c r="D11" s="4">
+        <v>63.17</v>
+      </c>
+      <c r="E11" s="4">
+        <v>63.63</v>
+      </c>
+      <c r="F11" s="4">
+        <v>73.14</v>
+      </c>
+      <c r="G11" s="4">
+        <v>58.93</v>
+      </c>
+      <c r="H11" s="4">
+        <v>65.88</v>
+      </c>
+      <c r="I11" s="4">
+        <v>65.73</v>
+      </c>
+      <c r="J11" s="4">
+        <v>118.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4">
+        <v>58.06</v>
+      </c>
+      <c r="C12" s="4">
+        <v>74.5</v>
+      </c>
+      <c r="D12" s="4">
+        <v>75.28</v>
+      </c>
+      <c r="E12" s="4">
+        <v>74.48</v>
+      </c>
+      <c r="F12" s="4">
+        <v>84.01</v>
+      </c>
+      <c r="G12" s="4">
+        <v>68.11</v>
+      </c>
+      <c r="H12" s="4">
+        <v>73.760000000000005</v>
+      </c>
+      <c r="I12" s="4">
+        <v>73.680000000000007</v>
+      </c>
+      <c r="J12" s="4">
+        <v>142.54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4">
+        <v>8.56</v>
+      </c>
+      <c r="C16" s="4">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="D16" s="4">
+        <v>8.57</v>
+      </c>
+      <c r="E16" s="4">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="F16" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G16" s="4">
+        <v>8.76</v>
+      </c>
+      <c r="H16" s="4">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="I16" s="4">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="J16" s="4">
+        <v>8.52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>5</v>
+      </c>
+      <c r="B17" s="4">
+        <v>10.49</v>
+      </c>
+      <c r="C17" s="4">
+        <v>10.45</v>
+      </c>
+      <c r="D17" s="4">
+        <v>10.45</v>
+      </c>
+      <c r="E17" s="4">
+        <v>10.38</v>
+      </c>
+      <c r="F17" s="4">
+        <v>10.43</v>
+      </c>
+      <c r="G17" s="4">
+        <v>10.41</v>
+      </c>
+      <c r="H17" s="4">
+        <v>10.49</v>
+      </c>
+      <c r="I17" s="4">
+        <v>10.45</v>
+      </c>
+      <c r="J17" s="4">
+        <v>10.38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>7</v>
+      </c>
+      <c r="B18" s="4">
+        <v>11.02</v>
+      </c>
+      <c r="C18" s="4">
+        <v>11.18</v>
+      </c>
+      <c r="D18" s="9">
+        <v>44893</v>
+      </c>
+      <c r="E18" s="4">
+        <v>11.31</v>
+      </c>
+      <c r="F18" s="4">
+        <v>11.33</v>
+      </c>
+      <c r="G18" s="4">
+        <v>11.24</v>
+      </c>
+      <c r="H18" s="4">
+        <v>11.28</v>
+      </c>
+      <c r="I18" s="4">
+        <v>11.27</v>
+      </c>
+      <c r="J18" s="4">
+        <v>11.26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A14:J14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBE3C40-D63A-E64C-A661-5A064DBBE125}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4">
+        <v>22.62</v>
+      </c>
+      <c r="C10" s="4">
+        <v>34.130000000000003</v>
+      </c>
+      <c r="D10" s="4">
+        <v>27.01</v>
+      </c>
+      <c r="E10" s="4">
+        <v>20</v>
+      </c>
+      <c r="F10" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="G10" s="4">
+        <v>26.81</v>
+      </c>
+      <c r="H10" s="4">
+        <v>19.61</v>
+      </c>
+      <c r="I10" s="4">
+        <v>26.48</v>
+      </c>
+      <c r="J10" s="4">
+        <v>61.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4">
+        <v>35.049999999999997</v>
+      </c>
+      <c r="C11" s="4">
+        <v>45.29</v>
+      </c>
+      <c r="D11" s="4">
+        <v>42.8</v>
+      </c>
+      <c r="E11" s="4">
+        <v>47.56</v>
+      </c>
+      <c r="F11" s="4">
+        <v>20.84</v>
+      </c>
+      <c r="G11" s="4">
+        <v>41.78</v>
+      </c>
+      <c r="H11" s="4">
+        <v>31.76</v>
+      </c>
+      <c r="I11" s="4">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="J11" s="4">
+        <v>82.27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="4">
+        <v>43.87</v>
+      </c>
+      <c r="C12" s="4">
+        <v>57.28</v>
+      </c>
+      <c r="D12" s="4">
+        <v>56.36</v>
+      </c>
+      <c r="E12" s="4">
+        <v>56.04</v>
+      </c>
+      <c r="F12" s="4">
+        <v>27.31</v>
+      </c>
+      <c r="G12" s="4">
+        <v>55.68</v>
+      </c>
+      <c r="H12" s="4">
+        <v>42.17</v>
+      </c>
+      <c r="I12" s="4">
+        <v>46.47</v>
+      </c>
+      <c r="J12" s="4">
+        <v>104.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>7.76</v>
+      </c>
+      <c r="C16" s="4">
+        <v>7.59</v>
+      </c>
+      <c r="D16" s="4">
+        <v>6.77</v>
+      </c>
+      <c r="E16" s="4">
+        <v>7.17</v>
+      </c>
+      <c r="F16" s="4">
+        <v>5.98</v>
+      </c>
+      <c r="G16" s="4">
+        <v>8.02</v>
+      </c>
+      <c r="H16" s="4">
+        <v>6.55</v>
+      </c>
+      <c r="I16" s="4">
+        <v>7.93</v>
+      </c>
+      <c r="J16" s="4">
+        <v>9.2899999999999991</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="C17" s="4">
+        <v>8.66</v>
+      </c>
+      <c r="D17" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="E17" s="4">
+        <v>8.67</v>
+      </c>
+      <c r="F17" s="4">
+        <v>7.63</v>
+      </c>
+      <c r="G17" s="4">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="H17" s="4">
+        <v>8.61</v>
+      </c>
+      <c r="I17" s="4">
+        <v>8.11</v>
+      </c>
+      <c r="J17" s="4">
+        <v>10.67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>11.27</v>
+      </c>
+      <c r="C18" s="4">
+        <v>10.98</v>
+      </c>
+      <c r="D18" s="4">
+        <v>10.84</v>
+      </c>
+      <c r="E18" s="4">
+        <v>10.81</v>
+      </c>
+      <c r="F18" s="4">
+        <v>10.53</v>
+      </c>
+      <c r="G18" s="4">
+        <v>11.86</v>
+      </c>
+      <c r="H18" s="4">
+        <v>11.43</v>
+      </c>
+      <c r="I18" s="4">
+        <v>10.44</v>
+      </c>
+      <c r="J18" s="4">
+        <v>13.34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A14:J14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>